--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>League</t>
   </si>
@@ -229,6 +229,9 @@
     <t>Portuguese Segunda Liga</t>
   </si>
   <si>
+    <t>Argentinian Copa de la Liga Profesional</t>
+  </si>
+  <si>
     <t>2024-03-18</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>17:15:00</t>
   </si>
   <si>
+    <t>21:15:00</t>
+  </si>
+  <si>
     <t>ACS Petrolul 52</t>
   </si>
   <si>
@@ -262,6 +268,9 @@
     <t>Vilaverdense</t>
   </si>
   <si>
+    <t>Union Santa Fe</t>
+  </si>
+  <si>
     <t>FC U Craiova 1948</t>
   </si>
   <si>
@@ -278,6 +287,78 @@
   </si>
   <si>
     <t>CF Os Belenenses</t>
+  </si>
+  <si>
+    <t>Central Cordoba (SdE)</t>
+  </si>
+  <si>
+    <t>33104519</t>
+  </si>
+  <si>
+    <t>33103273</t>
+  </si>
+  <si>
+    <t>33098237</t>
+  </si>
+  <si>
+    <t>33100603</t>
+  </si>
+  <si>
+    <t>33095363</t>
+  </si>
+  <si>
+    <t>33101797</t>
+  </si>
+  <si>
+    <t>33100549</t>
+  </si>
+  <si>
+    <t>1.226100145</t>
+  </si>
+  <si>
+    <t>1.226086683</t>
+  </si>
+  <si>
+    <t>1.226007212</t>
+  </si>
+  <si>
+    <t>1.226061417</t>
+  </si>
+  <si>
+    <t>1.225952007</t>
+  </si>
+  <si>
+    <t>1.226056148</t>
+  </si>
+  <si>
+    <t>1.226100190</t>
+  </si>
+  <si>
+    <t>1.226086728</t>
+  </si>
+  <si>
+    <t>1.226007222</t>
+  </si>
+  <si>
+    <t>1.226061462</t>
+  </si>
+  <si>
+    <t>1.225952017</t>
+  </si>
+  <si>
+    <t>1.226078945</t>
+  </si>
+  <si>
+    <t>1.226056158</t>
+  </si>
+  <si>
+    <t>1.226086767</t>
+  </si>
+  <si>
+    <t>1.226086692</t>
+  </si>
+  <si>
+    <t>1.226056157</t>
   </si>
 </sst>
 </file>
@@ -635,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM7"/>
+  <dimension ref="A1:BM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,22 +924,22 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2">
         <v>1.04</v>
       </c>
       <c r="G2">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="H2">
         <v>1.04</v>
@@ -867,7 +948,7 @@
         <v>980</v>
       </c>
       <c r="J2">
-        <v>2.8</v>
+        <v>1.33</v>
       </c>
       <c r="K2">
         <v>980</v>
@@ -876,7 +957,7 @@
         <v>1.66</v>
       </c>
       <c r="M2">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="N2">
         <v>2.02</v>
@@ -1010,8 +1091,8 @@
       <c r="BE2">
         <v>0</v>
       </c>
-      <c r="BF2">
-        <v>33104519</v>
+      <c r="BF2" t="s">
+        <v>92</v>
       </c>
       <c r="BG2">
         <v>14299496</v>
@@ -1022,11 +1103,11 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2">
-        <v>1.226100145</v>
-      </c>
-      <c r="BK2">
-        <v>1.22610019</v>
+      <c r="BJ2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>105</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -1040,16 +1121,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F3">
         <v>1.11</v>
@@ -1058,19 +1139,19 @@
         <v>480</v>
       </c>
       <c r="H3">
-        <v>1.12</v>
+        <v>2.52</v>
       </c>
       <c r="I3">
         <v>870</v>
       </c>
       <c r="J3">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="K3">
         <v>350</v>
       </c>
       <c r="L3">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -1082,16 +1163,16 @@
         <v>4.6</v>
       </c>
       <c r="P3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="R3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="S3">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="T3">
         <v>1.01</v>
@@ -1207,8 +1288,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3">
-        <v>33103273</v>
+      <c r="BF3" t="s">
+        <v>93</v>
       </c>
       <c r="BG3">
         <v>2519556</v>
@@ -1219,17 +1300,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3">
-        <v>1.226086683</v>
-      </c>
-      <c r="BK3">
-        <v>1.226086728</v>
-      </c>
-      <c r="BL3">
-        <v>1.226086767</v>
-      </c>
-      <c r="BM3">
-        <v>1.226086692</v>
+      <c r="BJ3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1237,40 +1318,40 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F4">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G4">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H4">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I4">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
         <v>1.54</v>
       </c>
       <c r="M4">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="N4">
         <v>2.44</v>
@@ -1404,8 +1485,8 @@
       <c r="BE4">
         <v>0</v>
       </c>
-      <c r="BF4">
-        <v>33098237</v>
+      <c r="BF4" t="s">
+        <v>94</v>
       </c>
       <c r="BG4">
         <v>5759757</v>
@@ -1416,11 +1497,11 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4">
-        <v>1.226007212</v>
-      </c>
-      <c r="BK4">
-        <v>1.226007222</v>
+      <c r="BJ4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>107</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -1434,46 +1515,46 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5">
-        <v>1.76</v>
+        <v>2.84</v>
       </c>
       <c r="G5">
-        <v>480</v>
+        <v>3.55</v>
       </c>
       <c r="H5">
-        <v>1.38</v>
+        <v>2.54</v>
       </c>
       <c r="I5">
-        <v>870</v>
+        <v>3.15</v>
       </c>
       <c r="J5">
-        <v>1.36</v>
+        <v>2.9</v>
       </c>
       <c r="K5">
-        <v>350</v>
+        <v>3.95</v>
       </c>
       <c r="L5">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>1.67</v>
       </c>
       <c r="N5">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="O5">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1601,8 +1682,8 @@
       <c r="BE5">
         <v>0</v>
       </c>
-      <c r="BF5">
-        <v>33100603</v>
+      <c r="BF5" t="s">
+        <v>95</v>
       </c>
       <c r="BG5">
         <v>2329297</v>
@@ -1613,11 +1694,11 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5">
-        <v>1.226061417</v>
-      </c>
-      <c r="BK5">
-        <v>1.226061462</v>
+      <c r="BJ5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>108</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1631,43 +1712,43 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F6">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="H6">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J6">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K6">
-        <v>350</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
         <v>1.9</v>
       </c>
       <c r="M6">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="N6">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="O6">
         <v>2.1</v>
@@ -1798,8 +1879,8 @@
       <c r="BE6">
         <v>0</v>
       </c>
-      <c r="BF6">
-        <v>33095363</v>
+      <c r="BF6" t="s">
+        <v>96</v>
       </c>
       <c r="BG6">
         <v>266068</v>
@@ -1810,11 +1891,11 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6">
-        <v>1.225952007</v>
-      </c>
-      <c r="BK6">
-        <v>1.225952017</v>
+      <c r="BJ6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>109</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -1828,16 +1909,16 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1995,8 +2076,8 @@
       <c r="BE7">
         <v>0</v>
       </c>
-      <c r="BF7">
-        <v>33101797</v>
+      <c r="BF7" t="s">
+        <v>97</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -2010,14 +2091,211 @@
       <c r="BJ7">
         <v>0</v>
       </c>
-      <c r="BK7">
-        <v>1.226078945</v>
+      <c r="BK7" t="s">
+        <v>110</v>
       </c>
       <c r="BL7">
         <v>0</v>
       </c>
       <c r="BM7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>1.89</v>
+      </c>
+      <c r="G8">
+        <v>1.98</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>6.2</v>
+      </c>
+      <c r="J8">
+        <v>3.2</v>
+      </c>
+      <c r="K8">
+        <v>3.5</v>
+      </c>
+      <c r="L8">
+        <v>1.52</v>
+      </c>
+      <c r="M8">
+        <v>1.67</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8">
+        <v>2.94</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>7.2</v>
+      </c>
+      <c r="U8">
+        <v>9.4</v>
+      </c>
+      <c r="V8">
+        <v>4.9</v>
+      </c>
+      <c r="W8">
+        <v>980</v>
+      </c>
+      <c r="X8">
+        <v>6.2</v>
+      </c>
+      <c r="Y8">
+        <v>980</v>
+      </c>
+      <c r="Z8">
+        <v>6.8</v>
+      </c>
+      <c r="AA8">
+        <v>1000</v>
+      </c>
+      <c r="AB8">
+        <v>5.4</v>
+      </c>
+      <c r="AC8">
+        <v>7</v>
+      </c>
+      <c r="AD8">
+        <v>6.6</v>
+      </c>
+      <c r="AE8">
+        <v>8.6</v>
+      </c>
+      <c r="AF8">
+        <v>5.6</v>
+      </c>
+      <c r="AG8">
+        <v>980</v>
+      </c>
+      <c r="AH8">
+        <v>6.6</v>
+      </c>
+      <c r="AI8">
+        <v>980</v>
+      </c>
+      <c r="AJ8">
+        <v>7.8</v>
+      </c>
+      <c r="AK8">
+        <v>980</v>
+      </c>
+      <c r="AL8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM8">
+        <v>980</v>
+      </c>
+      <c r="AN8">
+        <v>5.8</v>
+      </c>
+      <c r="AO8">
+        <v>980</v>
+      </c>
+      <c r="AP8">
+        <v>6.8</v>
+      </c>
+      <c r="AQ8">
+        <v>980</v>
+      </c>
+      <c r="AR8">
+        <v>5.4</v>
+      </c>
+      <c r="AS8">
+        <v>980</v>
+      </c>
+      <c r="AT8">
+        <v>5.7</v>
+      </c>
+      <c r="AU8">
+        <v>980</v>
+      </c>
+      <c r="AV8">
+        <v>6.4</v>
+      </c>
+      <c r="AW8">
+        <v>980</v>
+      </c>
+      <c r="AX8">
+        <v>6.8</v>
+      </c>
+      <c r="AY8">
+        <v>1000</v>
+      </c>
+      <c r="AZ8">
+        <v>5.4</v>
+      </c>
+      <c r="BA8">
+        <v>980</v>
+      </c>
+      <c r="BB8">
+        <v>6.8</v>
+      </c>
+      <c r="BC8">
+        <v>1000</v>
+      </c>
+      <c r="BD8">
+        <v>7</v>
+      </c>
+      <c r="BE8">
+        <v>1000</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG8">
+        <v>194516</v>
+      </c>
+      <c r="BH8">
+        <v>19641049</v>
+      </c>
+      <c r="BI8">
+        <v>58805</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>League</t>
   </si>
@@ -226,6 +226,9 @@
     <t>English League 2</t>
   </si>
   <si>
+    <t>French National</t>
+  </si>
+  <si>
     <t>Portuguese Segunda Liga</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>16:45:00</t>
   </si>
   <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
     <t>17:15:00</t>
   </si>
   <si>
@@ -265,6 +271,9 @@
     <t>Crawley Town</t>
   </si>
   <si>
+    <t>Villefranche Beaujolais</t>
+  </si>
+  <si>
     <t>Vilaverdense</t>
   </si>
   <si>
@@ -286,79 +295,22 @@
     <t>Stockport</t>
   </si>
   <si>
+    <t>Red Star</t>
+  </si>
+  <si>
     <t>CF Os Belenenses</t>
   </si>
   <si>
     <t>Central Cordoba (SdE)</t>
   </si>
   <si>
-    <t>33104519</t>
-  </si>
-  <si>
-    <t>33103273</t>
-  </si>
-  <si>
-    <t>33098237</t>
-  </si>
-  <si>
-    <t>33100603</t>
-  </si>
-  <si>
-    <t>33095363</t>
-  </si>
-  <si>
-    <t>33101797</t>
-  </si>
-  <si>
-    <t>33100549</t>
-  </si>
-  <si>
-    <t>1.226100145</t>
-  </si>
-  <si>
-    <t>1.226086683</t>
-  </si>
-  <si>
-    <t>1.226007212</t>
-  </si>
-  <si>
-    <t>1.226061417</t>
-  </si>
-  <si>
-    <t>1.225952007</t>
-  </si>
-  <si>
-    <t>1.226056148</t>
-  </si>
-  <si>
-    <t>1.226100190</t>
-  </si>
-  <si>
-    <t>1.226086728</t>
-  </si>
-  <si>
-    <t>1.226007222</t>
-  </si>
-  <si>
-    <t>1.226061462</t>
-  </si>
-  <si>
-    <t>1.225952017</t>
-  </si>
-  <si>
-    <t>1.226078945</t>
-  </si>
-  <si>
-    <t>1.226056158</t>
-  </si>
-  <si>
-    <t>1.226086767</t>
-  </si>
-  <si>
-    <t>1.226086692</t>
-  </si>
-  <si>
-    <t>1.226056157</t>
+    <t>33114846</t>
+  </si>
+  <si>
+    <t>1.226264276</t>
+  </si>
+  <si>
+    <t>1.226264321</t>
   </si>
 </sst>
 </file>
@@ -716,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM8"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -924,175 +876,175 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="G2">
-        <v>980</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="I2">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="J2">
-        <v>1.33</v>
+        <v>3.15</v>
       </c>
       <c r="K2">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L2">
         <v>1.66</v>
       </c>
       <c r="M2">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="N2">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="O2">
         <v>4.6</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>92</v>
+        <v>1000</v>
+      </c>
+      <c r="BF2">
+        <v>33104519</v>
       </c>
       <c r="BG2">
         <v>14299496</v>
@@ -1103,11 +1055,11 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>105</v>
+      <c r="BJ2">
+        <v>1.226100145</v>
+      </c>
+      <c r="BK2">
+        <v>1.22610019</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -1121,34 +1073,34 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F3">
-        <v>1.11</v>
+        <v>2.5</v>
       </c>
       <c r="G3">
-        <v>480</v>
+        <v>3.55</v>
       </c>
       <c r="H3">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="I3">
-        <v>870</v>
+        <v>4.3</v>
       </c>
       <c r="J3">
-        <v>1.38</v>
+        <v>2.74</v>
       </c>
       <c r="K3">
-        <v>350</v>
+        <v>4.3</v>
       </c>
       <c r="L3">
         <v>1.28</v>
@@ -1175,97 +1127,97 @@
         <v>990</v>
       </c>
       <c r="T3">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U3">
         <v>1000</v>
       </c>
       <c r="V3">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>1000</v>
       </c>
       <c r="X3">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="Y3">
         <v>1000</v>
       </c>
       <c r="Z3">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="AA3">
         <v>1000</v>
       </c>
       <c r="AB3">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="AC3">
         <v>1000</v>
       </c>
       <c r="AD3">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AE3">
         <v>1000</v>
       </c>
       <c r="AF3">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AG3">
         <v>1000</v>
       </c>
       <c r="AH3">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AI3">
         <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>1.01</v>
+        <v>2.76</v>
       </c>
       <c r="AK3">
         <v>1000</v>
       </c>
       <c r="AL3">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AM3">
         <v>1000</v>
       </c>
       <c r="AN3">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AO3">
         <v>1000</v>
       </c>
       <c r="AP3">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AQ3">
         <v>1000</v>
       </c>
       <c r="AR3">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AS3">
         <v>1000</v>
       </c>
       <c r="AT3">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AU3">
         <v>1000</v>
       </c>
       <c r="AV3">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AW3">
         <v>1000</v>
       </c>
       <c r="AX3">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AY3">
         <v>1000</v>
@@ -1283,13 +1235,13 @@
         <v>1000</v>
       </c>
       <c r="BD3">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>93</v>
+      <c r="BF3">
+        <v>33103273</v>
       </c>
       <c r="BG3">
         <v>2519556</v>
@@ -1300,17 +1252,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>113</v>
+      <c r="BJ3">
+        <v>1.226086683</v>
+      </c>
+      <c r="BK3">
+        <v>1.226086728</v>
+      </c>
+      <c r="BL3">
+        <v>1.226086767</v>
+      </c>
+      <c r="BM3">
+        <v>1.226086692</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1318,28 +1270,28 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G4">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H4">
         <v>5.3</v>
       </c>
       <c r="I4">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J4">
         <v>3.25</v>
@@ -1351,10 +1303,10 @@
         <v>1.54</v>
       </c>
       <c r="M4">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N4">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
         <v>2.86</v>
@@ -1485,8 +1437,8 @@
       <c r="BE4">
         <v>0</v>
       </c>
-      <c r="BF4" t="s">
-        <v>94</v>
+      <c r="BF4">
+        <v>33098237</v>
       </c>
       <c r="BG4">
         <v>5759757</v>
@@ -1497,11 +1449,11 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>107</v>
+      <c r="BJ4">
+        <v>1.226007212</v>
+      </c>
+      <c r="BK4">
+        <v>1.226007222</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -1515,16 +1467,16 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>2.84</v>
@@ -1533,16 +1485,16 @@
         <v>3.55</v>
       </c>
       <c r="H5">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I5">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J5">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K5">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L5">
         <v>1.49</v>
@@ -1682,8 +1634,8 @@
       <c r="BE5">
         <v>0</v>
       </c>
-      <c r="BF5" t="s">
-        <v>95</v>
+      <c r="BF5">
+        <v>33100603</v>
       </c>
       <c r="BG5">
         <v>2329297</v>
@@ -1694,11 +1646,11 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>108</v>
+      <c r="BJ5">
+        <v>1.226061417</v>
+      </c>
+      <c r="BK5">
+        <v>1.226061462</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1712,16 +1664,16 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1733,7 +1685,7 @@
         <v>1.9</v>
       </c>
       <c r="I6">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J6">
         <v>3.6</v>
@@ -1751,7 +1703,7 @@
         <v>1.89</v>
       </c>
       <c r="O6">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1879,8 +1831,8 @@
       <c r="BE6">
         <v>0</v>
       </c>
-      <c r="BF6" t="s">
-        <v>96</v>
+      <c r="BF6">
+        <v>33095363</v>
       </c>
       <c r="BG6">
         <v>266068</v>
@@ -1891,11 +1843,11 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>109</v>
+      <c r="BJ6">
+        <v>1.225952007</v>
+      </c>
+      <c r="BK6">
+        <v>1.225952017</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -1909,37 +1861,37 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L7">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="M7">
         <v>1000</v>
@@ -1948,7 +1900,7 @@
         <v>1.01</v>
       </c>
       <c r="O7">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2077,22 +2029,22 @@
         <v>0</v>
       </c>
       <c r="BF7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG7">
+        <v>19932524</v>
+      </c>
+      <c r="BH7">
+        <v>496950</v>
+      </c>
+      <c r="BI7">
+        <v>58805</v>
+      </c>
+      <c r="BJ7" t="s">
         <v>97</v>
       </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
       <c r="BK7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2106,196 +2058,393 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1.07</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>1.01</v>
+      </c>
+      <c r="O8">
+        <v>21</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>33101797</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>1.226078945</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
+      <c r="A9" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9">
         <v>1.89</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>1.98</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="I9">
+        <v>6.6</v>
+      </c>
+      <c r="J9">
+        <v>3.2</v>
+      </c>
+      <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>1.52</v>
+      </c>
+      <c r="M9">
+        <v>1.67</v>
+      </c>
+      <c r="N9">
+        <v>2.5</v>
+      </c>
+      <c r="O9">
+        <v>2.94</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>7.2</v>
+      </c>
+      <c r="U9">
+        <v>9.4</v>
+      </c>
+      <c r="V9">
+        <v>4.9</v>
+      </c>
+      <c r="W9">
+        <v>980</v>
+      </c>
+      <c r="X9">
         <v>6.2</v>
       </c>
-      <c r="J8">
-        <v>3.2</v>
-      </c>
-      <c r="K8">
-        <v>3.5</v>
-      </c>
-      <c r="L8">
-        <v>1.52</v>
-      </c>
-      <c r="M8">
-        <v>1.67</v>
-      </c>
-      <c r="N8">
-        <v>2.5</v>
-      </c>
-      <c r="O8">
-        <v>2.94</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>7.2</v>
-      </c>
-      <c r="U8">
-        <v>9.4</v>
-      </c>
-      <c r="V8">
-        <v>4.9</v>
-      </c>
-      <c r="W8">
+      <c r="Y9">
         <v>980</v>
       </c>
-      <c r="X8">
-        <v>6.2</v>
-      </c>
-      <c r="Y8">
+      <c r="Z9">
+        <v>6.8</v>
+      </c>
+      <c r="AA9">
+        <v>1000</v>
+      </c>
+      <c r="AB9">
+        <v>5.4</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>6.6</v>
+      </c>
+      <c r="AE9">
+        <v>8.6</v>
+      </c>
+      <c r="AF9">
+        <v>5.6</v>
+      </c>
+      <c r="AG9">
         <v>980</v>
       </c>
-      <c r="Z8">
+      <c r="AH9">
+        <v>6.6</v>
+      </c>
+      <c r="AI9">
+        <v>980</v>
+      </c>
+      <c r="AJ9">
+        <v>7.8</v>
+      </c>
+      <c r="AK9">
+        <v>980</v>
+      </c>
+      <c r="AL9">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM9">
+        <v>980</v>
+      </c>
+      <c r="AN9">
+        <v>5.8</v>
+      </c>
+      <c r="AO9">
+        <v>980</v>
+      </c>
+      <c r="AP9">
         <v>6.8</v>
       </c>
-      <c r="AA8">
-        <v>1000</v>
-      </c>
-      <c r="AB8">
+      <c r="AQ9">
+        <v>980</v>
+      </c>
+      <c r="AR9">
         <v>5.4</v>
       </c>
-      <c r="AC8">
+      <c r="AS9">
+        <v>980</v>
+      </c>
+      <c r="AT9">
+        <v>5.7</v>
+      </c>
+      <c r="AU9">
+        <v>980</v>
+      </c>
+      <c r="AV9">
+        <v>6.4</v>
+      </c>
+      <c r="AW9">
+        <v>980</v>
+      </c>
+      <c r="AX9">
+        <v>6.8</v>
+      </c>
+      <c r="AY9">
+        <v>1000</v>
+      </c>
+      <c r="AZ9">
+        <v>5.4</v>
+      </c>
+      <c r="BA9">
+        <v>980</v>
+      </c>
+      <c r="BB9">
+        <v>6.8</v>
+      </c>
+      <c r="BC9">
+        <v>1000</v>
+      </c>
+      <c r="BD9">
         <v>7</v>
       </c>
-      <c r="AD8">
-        <v>6.6</v>
-      </c>
-      <c r="AE8">
-        <v>8.6</v>
-      </c>
-      <c r="AF8">
-        <v>5.6</v>
-      </c>
-      <c r="AG8">
-        <v>980</v>
-      </c>
-      <c r="AH8">
-        <v>6.6</v>
-      </c>
-      <c r="AI8">
-        <v>980</v>
-      </c>
-      <c r="AJ8">
-        <v>7.8</v>
-      </c>
-      <c r="AK8">
-        <v>980</v>
-      </c>
-      <c r="AL8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM8">
-        <v>980</v>
-      </c>
-      <c r="AN8">
-        <v>5.8</v>
-      </c>
-      <c r="AO8">
-        <v>980</v>
-      </c>
-      <c r="AP8">
-        <v>6.8</v>
-      </c>
-      <c r="AQ8">
-        <v>980</v>
-      </c>
-      <c r="AR8">
-        <v>5.4</v>
-      </c>
-      <c r="AS8">
-        <v>980</v>
-      </c>
-      <c r="AT8">
-        <v>5.7</v>
-      </c>
-      <c r="AU8">
-        <v>980</v>
-      </c>
-      <c r="AV8">
-        <v>6.4</v>
-      </c>
-      <c r="AW8">
-        <v>980</v>
-      </c>
-      <c r="AX8">
-        <v>6.8</v>
-      </c>
-      <c r="AY8">
-        <v>1000</v>
-      </c>
-      <c r="AZ8">
-        <v>5.4</v>
-      </c>
-      <c r="BA8">
-        <v>980</v>
-      </c>
-      <c r="BB8">
-        <v>6.8</v>
-      </c>
-      <c r="BC8">
-        <v>1000</v>
-      </c>
-      <c r="BD8">
-        <v>7</v>
-      </c>
-      <c r="BE8">
-        <v>1000</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG8">
+      <c r="BE9">
+        <v>1000</v>
+      </c>
+      <c r="BF9">
+        <v>33100549</v>
+      </c>
+      <c r="BG9">
         <v>194516</v>
       </c>
-      <c r="BH8">
+      <c r="BH9">
         <v>19641049</v>
       </c>
-      <c r="BI8">
+      <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>114</v>
+      <c r="BJ9">
+        <v>1.226056148</v>
+      </c>
+      <c r="BK9">
+        <v>1.226056158</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>1.226056157</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>League</t>
   </si>
@@ -238,6 +238,9 @@
     <t>2024-03-18</t>
   </si>
   <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
     <t>15:30:00</t>
   </si>
   <si>
@@ -256,6 +259,9 @@
     <t>21:15:00</t>
   </si>
   <si>
+    <t>UTA Arad</t>
+  </si>
+  <si>
     <t>ACS Petrolul 52</t>
   </si>
   <si>
@@ -280,6 +286,9 @@
     <t>Union Santa Fe</t>
   </si>
   <si>
+    <t>FC Voluntari</t>
+  </si>
+  <si>
     <t>FC U Craiova 1948</t>
   </si>
   <si>
@@ -304,13 +313,19 @@
     <t>Central Cordoba (SdE)</t>
   </si>
   <si>
-    <t>33114846</t>
-  </si>
-  <si>
-    <t>1.226264276</t>
-  </si>
-  <si>
-    <t>1.226264321</t>
+    <t>33117667</t>
+  </si>
+  <si>
+    <t>1.226300654</t>
+  </si>
+  <si>
+    <t>1.226300699</t>
+  </si>
+  <si>
+    <t>1.226300738</t>
+  </si>
+  <si>
+    <t>1.226300663</t>
   </si>
 </sst>
 </file>
@@ -668,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM9"/>
+  <dimension ref="A1:BM10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,70 +897,70 @@
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="I2">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="J2">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K2">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L2">
         <v>1.66</v>
       </c>
       <c r="M2">
+        <v>1.91</v>
+      </c>
+      <c r="N2">
+        <v>2.1</v>
+      </c>
+      <c r="O2">
+        <v>2.5</v>
+      </c>
+      <c r="P2">
         <v>1.93</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
+        <v>2.28</v>
+      </c>
+      <c r="R2">
+        <v>1.79</v>
+      </c>
+      <c r="S2">
         <v>2.08</v>
       </c>
-      <c r="O2">
-        <v>4.6</v>
-      </c>
-      <c r="P2">
-        <v>1.78</v>
-      </c>
-      <c r="Q2">
-        <v>2.34</v>
-      </c>
-      <c r="R2">
-        <v>1.75</v>
-      </c>
-      <c r="S2">
-        <v>2.28</v>
-      </c>
       <c r="T2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="U2">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V2">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="W2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="X2">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="Y2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z2">
         <v>1.01</v>
@@ -957,67 +972,67 @@
         <v>6.4</v>
       </c>
       <c r="AC2">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD2">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE2">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AF2">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AG2">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AH2">
+        <v>55</v>
+      </c>
+      <c r="AI2">
+        <v>1000</v>
+      </c>
+      <c r="AJ2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK2">
+        <v>12</v>
+      </c>
+      <c r="AL2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>12</v>
+      </c>
+      <c r="AN2">
+        <v>18.5</v>
+      </c>
+      <c r="AO2">
+        <v>25</v>
+      </c>
+      <c r="AP2">
+        <v>65</v>
+      </c>
+      <c r="AQ2">
+        <v>1000</v>
+      </c>
+      <c r="AR2">
+        <v>17.5</v>
+      </c>
+      <c r="AS2">
+        <v>24</v>
+      </c>
+      <c r="AT2">
+        <v>18.5</v>
+      </c>
+      <c r="AU2">
+        <v>25</v>
+      </c>
+      <c r="AV2">
         <v>36</v>
       </c>
-      <c r="AI2">
-        <v>1000</v>
-      </c>
-      <c r="AJ2">
-        <v>10</v>
-      </c>
-      <c r="AK2">
-        <v>16.5</v>
-      </c>
-      <c r="AL2">
-        <v>8.6</v>
-      </c>
-      <c r="AM2">
-        <v>14.5</v>
-      </c>
-      <c r="AN2">
-        <v>15</v>
-      </c>
-      <c r="AO2">
-        <v>26</v>
-      </c>
-      <c r="AP2">
-        <v>1.01</v>
-      </c>
-      <c r="AQ2">
-        <v>1000</v>
-      </c>
-      <c r="AR2">
-        <v>22</v>
-      </c>
-      <c r="AS2">
-        <v>1000</v>
-      </c>
-      <c r="AT2">
-        <v>20</v>
-      </c>
-      <c r="AU2">
-        <v>1000</v>
-      </c>
-      <c r="AV2">
-        <v>34</v>
-      </c>
       <c r="AW2">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX2">
         <v>1.01</v>
@@ -1029,7 +1044,7 @@
         <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="BB2">
         <v>1.01</v>
@@ -1043,34 +1058,34 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2">
-        <v>33104519</v>
+      <c r="BF2" t="s">
+        <v>99</v>
       </c>
       <c r="BG2">
-        <v>14299496</v>
+        <v>2311174</v>
       </c>
       <c r="BH2">
-        <v>20135214</v>
+        <v>8838645</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2">
-        <v>1.226100145</v>
-      </c>
-      <c r="BK2">
-        <v>1.22610019</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+      <c r="BJ2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -1079,578 +1094,578 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F3">
+        <v>2.16</v>
+      </c>
+      <c r="G3">
+        <v>2.38</v>
+      </c>
+      <c r="H3">
+        <v>3.55</v>
+      </c>
+      <c r="I3">
+        <v>4.5</v>
+      </c>
+      <c r="J3">
+        <v>3.2</v>
+      </c>
+      <c r="K3">
+        <v>3.6</v>
+      </c>
+      <c r="L3">
+        <v>1.67</v>
+      </c>
+      <c r="M3">
+        <v>1.84</v>
+      </c>
+      <c r="N3">
+        <v>2.2</v>
+      </c>
+      <c r="O3">
         <v>2.5</v>
       </c>
-      <c r="G3">
-        <v>3.55</v>
-      </c>
-      <c r="H3">
-        <v>2.76</v>
-      </c>
-      <c r="I3">
-        <v>4.3</v>
-      </c>
-      <c r="J3">
-        <v>2.74</v>
-      </c>
-      <c r="K3">
-        <v>4.3</v>
-      </c>
-      <c r="L3">
-        <v>1.28</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>4.6</v>
-      </c>
       <c r="P3">
-        <v>1.02</v>
+        <v>1.95</v>
       </c>
       <c r="Q3">
-        <v>990</v>
+        <v>2.1</v>
       </c>
       <c r="R3">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>990</v>
+        <v>2.06</v>
       </c>
       <c r="T3">
-        <v>1.47</v>
+        <v>3.9</v>
       </c>
       <c r="U3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>2.08</v>
       </c>
       <c r="W3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X3">
-        <v>2.68</v>
+        <v>19</v>
       </c>
       <c r="Y3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="AA3">
         <v>1000</v>
       </c>
       <c r="AB3">
-        <v>2.66</v>
+        <v>3.65</v>
       </c>
       <c r="AC3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD3">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="AE3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF3">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="AG3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3">
-        <v>7.8</v>
+        <v>1.61</v>
       </c>
       <c r="AI3">
         <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="AK3">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL3">
-        <v>4.3</v>
+        <v>2.08</v>
       </c>
       <c r="AM3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN3">
-        <v>3.95</v>
+        <v>2.22</v>
       </c>
       <c r="AO3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP3">
-        <v>6.8</v>
+        <v>1.62</v>
       </c>
       <c r="AQ3">
         <v>1000</v>
       </c>
       <c r="AR3">
-        <v>5</v>
+        <v>2.28</v>
       </c>
       <c r="AS3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT3">
-        <v>7</v>
+        <v>2.28</v>
       </c>
       <c r="AU3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV3">
-        <v>16</v>
+        <v>1.65</v>
       </c>
       <c r="AW3">
         <v>1000</v>
       </c>
       <c r="AX3">
-        <v>10</v>
+        <v>1.62</v>
       </c>
       <c r="AY3">
         <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="BA3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB3">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="BC3">
         <v>1000</v>
       </c>
       <c r="BD3">
-        <v>25</v>
+        <v>1.62</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
       <c r="BF3">
-        <v>33103273</v>
+        <v>33104519</v>
       </c>
       <c r="BG3">
-        <v>2519556</v>
+        <v>14299496</v>
       </c>
       <c r="BH3">
-        <v>10647603</v>
+        <v>20135214</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
       <c r="BJ3">
-        <v>1.226086683</v>
+        <v>1.226100145</v>
       </c>
       <c r="BK3">
-        <v>1.226086728</v>
+        <v>1.22610019</v>
       </c>
       <c r="BL3">
-        <v>1.226086767</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1.226086692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4">
-        <v>1.87</v>
+        <v>2.68</v>
       </c>
       <c r="G4">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H4">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="I4">
+        <v>3.45</v>
+      </c>
+      <c r="J4">
+        <v>2.84</v>
+      </c>
+      <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>1.46</v>
+      </c>
+      <c r="M4">
+        <v>1.63</v>
+      </c>
+      <c r="N4">
+        <v>2.6</v>
+      </c>
+      <c r="O4">
+        <v>3.2</v>
+      </c>
+      <c r="P4">
+        <v>2.06</v>
+      </c>
+      <c r="Q4">
+        <v>2.46</v>
+      </c>
+      <c r="R4">
+        <v>1.68</v>
+      </c>
+      <c r="S4">
+        <v>1.93</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>980</v>
+      </c>
+      <c r="V4">
         <v>6.6</v>
       </c>
-      <c r="J4">
-        <v>3.25</v>
-      </c>
-      <c r="K4">
-        <v>3.5</v>
-      </c>
-      <c r="L4">
-        <v>1.54</v>
-      </c>
-      <c r="M4">
-        <v>1.72</v>
-      </c>
-      <c r="N4">
-        <v>2.4</v>
-      </c>
-      <c r="O4">
-        <v>2.86</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4">
-        <v>33098237</v>
+        <v>33103273</v>
       </c>
       <c r="BG4">
-        <v>5759757</v>
+        <v>2519556</v>
       </c>
       <c r="BH4">
-        <v>5756673</v>
+        <v>10647603</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
       <c r="BJ4">
-        <v>1.226007212</v>
+        <v>1.226086683</v>
       </c>
       <c r="BK4">
-        <v>1.226007222</v>
+        <v>1.226086728</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>1.226086767</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>1.226086692</v>
       </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5">
-        <v>2.84</v>
+        <v>1.84</v>
       </c>
       <c r="G5">
-        <v>3.55</v>
+        <v>1.89</v>
       </c>
       <c r="H5">
-        <v>2.58</v>
+        <v>5.5</v>
       </c>
       <c r="I5">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="J5">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="K5">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="L5">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M5">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N5">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="O5">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5">
-        <v>33100603</v>
+        <v>33098237</v>
       </c>
       <c r="BG5">
-        <v>2329297</v>
+        <v>5759757</v>
       </c>
       <c r="BH5">
-        <v>10573041</v>
+        <v>5756673</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5">
-        <v>1.226061417</v>
+        <v>1.226007212</v>
       </c>
       <c r="BK5">
-        <v>1.226061462</v>
+        <v>1.226007222</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1661,7 +1676,7 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -1670,184 +1685,184 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="G6">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H6">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="I6">
-        <v>1.97</v>
+        <v>3.05</v>
       </c>
       <c r="J6">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="K6">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L6">
-        <v>1.9</v>
+        <v>1.46</v>
       </c>
       <c r="M6">
-        <v>2.14</v>
+        <v>1.64</v>
       </c>
       <c r="N6">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="O6">
-        <v>2.12</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6">
-        <v>33095363</v>
+        <v>33100603</v>
       </c>
       <c r="BG6">
-        <v>266068</v>
+        <v>2329297</v>
       </c>
       <c r="BH6">
-        <v>47997</v>
+        <v>10573041</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
       <c r="BJ6">
-        <v>1.225952007</v>
+        <v>1.226061417</v>
       </c>
       <c r="BK6">
-        <v>1.225952017</v>
+        <v>1.226061462</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -1858,7 +1873,7 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -1867,184 +1882,184 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="H7">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>1.97</v>
       </c>
       <c r="J7">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L7">
-        <v>1.15</v>
+        <v>1.95</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="N7">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="O7">
-        <v>990</v>
+        <v>2.06</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>96</v>
+        <v>1000</v>
+      </c>
+      <c r="BF7">
+        <v>33095363</v>
       </c>
       <c r="BG7">
-        <v>19932524</v>
+        <v>266068</v>
       </c>
       <c r="BH7">
-        <v>496950</v>
+        <v>47997</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>98</v>
+      <c r="BJ7">
+        <v>1.225952007</v>
+      </c>
+      <c r="BK7">
+        <v>1.225952017</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2055,7 +2070,7 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -2064,184 +2079,184 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="L8">
-        <v>1.07</v>
+        <v>1.75</v>
       </c>
       <c r="M8">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>21</v>
+        <v>2.34</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8">
-        <v>33101797</v>
+        <v>33114846</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>19932524</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>496950</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>1.226264276</v>
       </c>
       <c r="BK8">
-        <v>1.226078945</v>
+        <v>1.226264321</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -2252,7 +2267,7 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -2261,189 +2276,386 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9">
-        <v>1.89</v>
+        <v>2.44</v>
       </c>
       <c r="G9">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2.96</v>
       </c>
       <c r="I9">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="J9">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K9">
+        <v>3.6</v>
+      </c>
+      <c r="L9">
+        <v>1.86</v>
+      </c>
+      <c r="M9">
+        <v>1.99</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2.18</v>
+      </c>
+      <c r="P9">
+        <v>1.81</v>
+      </c>
+      <c r="Q9">
+        <v>1.88</v>
+      </c>
+      <c r="R9">
+        <v>2.12</v>
+      </c>
+      <c r="S9">
+        <v>2.22</v>
+      </c>
+      <c r="T9">
+        <v>2.78</v>
+      </c>
+      <c r="U9">
+        <v>980</v>
+      </c>
+      <c r="V9">
+        <v>2.8</v>
+      </c>
+      <c r="W9">
+        <v>980</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>980</v>
+      </c>
+      <c r="Z9">
+        <v>3.25</v>
+      </c>
+      <c r="AA9">
+        <v>980</v>
+      </c>
+      <c r="AB9">
+        <v>3.95</v>
+      </c>
+      <c r="AC9">
+        <v>980</v>
+      </c>
+      <c r="AD9">
         <v>3.5</v>
-      </c>
-      <c r="L9">
-        <v>1.52</v>
-      </c>
-      <c r="M9">
-        <v>1.67</v>
-      </c>
-      <c r="N9">
-        <v>2.5</v>
-      </c>
-      <c r="O9">
-        <v>2.94</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>7.2</v>
-      </c>
-      <c r="U9">
-        <v>9.4</v>
-      </c>
-      <c r="V9">
-        <v>4.9</v>
-      </c>
-      <c r="W9">
-        <v>980</v>
-      </c>
-      <c r="X9">
-        <v>6.2</v>
-      </c>
-      <c r="Y9">
-        <v>980</v>
-      </c>
-      <c r="Z9">
-        <v>6.8</v>
-      </c>
-      <c r="AA9">
-        <v>1000</v>
-      </c>
-      <c r="AB9">
-        <v>5.4</v>
-      </c>
-      <c r="AC9">
-        <v>7</v>
-      </c>
-      <c r="AD9">
-        <v>6.6</v>
       </c>
       <c r="AE9">
         <v>8.6</v>
       </c>
       <c r="AF9">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="AG9">
         <v>980</v>
       </c>
       <c r="AH9">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="AI9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="AK9">
         <v>980</v>
       </c>
       <c r="AL9">
-        <v>9.199999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="AM9">
         <v>980</v>
       </c>
       <c r="AN9">
-        <v>5.8</v>
+        <v>2.96</v>
       </c>
       <c r="AO9">
         <v>980</v>
       </c>
       <c r="AP9">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="AQ9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR9">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="AS9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT9">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="AU9">
         <v>980</v>
       </c>
       <c r="AV9">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="AW9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX9">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="AY9">
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>5.4</v>
+        <v>1.89</v>
       </c>
       <c r="BA9">
         <v>980</v>
       </c>
       <c r="BB9">
-        <v>6.8</v>
+        <v>1.79</v>
       </c>
       <c r="BC9">
         <v>1000</v>
       </c>
       <c r="BD9">
-        <v>7</v>
+        <v>1.79</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
       <c r="BF9">
-        <v>33100549</v>
+        <v>33101797</v>
       </c>
       <c r="BG9">
-        <v>194516</v>
+        <v>6765831</v>
       </c>
       <c r="BH9">
-        <v>19641049</v>
+        <v>41895590</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9">
-        <v>1.226056148</v>
+        <v>0</v>
       </c>
       <c r="BK9">
-        <v>1.226056158</v>
+        <v>1.226078945</v>
       </c>
       <c r="BL9">
         <v>0</v>
       </c>
       <c r="BM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10">
+        <v>1.89</v>
+      </c>
+      <c r="G10">
+        <v>1.93</v>
+      </c>
+      <c r="H10">
+        <v>5.2</v>
+      </c>
+      <c r="I10">
+        <v>6.2</v>
+      </c>
+      <c r="J10">
+        <v>3.25</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>1.52</v>
+      </c>
+      <c r="M10">
+        <v>1.67</v>
+      </c>
+      <c r="N10">
+        <v>2.48</v>
+      </c>
+      <c r="O10">
+        <v>2.94</v>
+      </c>
+      <c r="P10">
+        <v>2.2</v>
+      </c>
+      <c r="Q10">
+        <v>2.58</v>
+      </c>
+      <c r="R10">
+        <v>1.63</v>
+      </c>
+      <c r="S10">
+        <v>1.84</v>
+      </c>
+      <c r="T10">
+        <v>7.2</v>
+      </c>
+      <c r="U10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="V10">
+        <v>6.8</v>
+      </c>
+      <c r="W10">
+        <v>980</v>
+      </c>
+      <c r="X10">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>40</v>
+      </c>
+      <c r="Z10">
+        <v>4.1</v>
+      </c>
+      <c r="AA10">
+        <v>980</v>
+      </c>
+      <c r="AB10">
+        <v>5.7</v>
+      </c>
+      <c r="AC10">
+        <v>6.8</v>
+      </c>
+      <c r="AD10">
+        <v>7.4</v>
+      </c>
+      <c r="AE10">
+        <v>980</v>
+      </c>
+      <c r="AF10">
+        <v>20</v>
+      </c>
+      <c r="AG10">
+        <v>25</v>
+      </c>
+      <c r="AH10">
+        <v>10</v>
+      </c>
+      <c r="AI10">
+        <v>980</v>
+      </c>
+      <c r="AJ10">
+        <v>8.4</v>
+      </c>
+      <c r="AK10">
+        <v>9.6</v>
+      </c>
+      <c r="AL10">
+        <v>10</v>
+      </c>
+      <c r="AM10">
+        <v>11.5</v>
+      </c>
+      <c r="AN10">
+        <v>8.6</v>
+      </c>
+      <c r="AO10">
+        <v>32</v>
+      </c>
+      <c r="AP10">
+        <v>10</v>
+      </c>
+      <c r="AQ10">
+        <v>160</v>
+      </c>
+      <c r="AR10">
+        <v>18</v>
+      </c>
+      <c r="AS10">
+        <v>21</v>
+      </c>
+      <c r="AT10">
+        <v>8.6</v>
+      </c>
+      <c r="AU10">
+        <v>28</v>
+      </c>
+      <c r="AV10">
+        <v>10</v>
+      </c>
+      <c r="AW10">
+        <v>980</v>
+      </c>
+      <c r="AX10">
+        <v>2.74</v>
+      </c>
+      <c r="AY10">
+        <v>1000</v>
+      </c>
+      <c r="AZ10">
+        <v>14</v>
+      </c>
+      <c r="BA10">
+        <v>980</v>
+      </c>
+      <c r="BB10">
+        <v>2.72</v>
+      </c>
+      <c r="BC10">
+        <v>1000</v>
+      </c>
+      <c r="BD10">
+        <v>2.76</v>
+      </c>
+      <c r="BE10">
+        <v>1000</v>
+      </c>
+      <c r="BF10">
+        <v>33100549</v>
+      </c>
+      <c r="BG10">
+        <v>194516</v>
+      </c>
+      <c r="BH10">
+        <v>19641049</v>
+      </c>
+      <c r="BI10">
+        <v>58805</v>
+      </c>
+      <c r="BJ10">
+        <v>1.226056148</v>
+      </c>
+      <c r="BK10">
+        <v>1.226056158</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
         <v>1.226056157</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>League</t>
   </si>
@@ -311,21 +311,6 @@
   </si>
   <si>
     <t>Central Cordoba (SdE)</t>
-  </si>
-  <si>
-    <t>33117667</t>
-  </si>
-  <si>
-    <t>1.226300654</t>
-  </si>
-  <si>
-    <t>1.226300699</t>
-  </si>
-  <si>
-    <t>1.226300738</t>
-  </si>
-  <si>
-    <t>1.226300663</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1043,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>99</v>
+      <c r="BF2">
+        <v>33117667</v>
       </c>
       <c r="BG2">
         <v>2311174</v>
@@ -1070,17 +1055,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>103</v>
+      <c r="BJ2">
+        <v>1.226300654</v>
+      </c>
+      <c r="BK2">
+        <v>1.226300699</v>
+      </c>
+      <c r="BL2">
+        <v>1.226300738</v>
+      </c>
+      <c r="BM2">
+        <v>1.226300663</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1100,157 +1085,157 @@
         <v>91</v>
       </c>
       <c r="F3">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="G3">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="H3">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J3">
         <v>3.2</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="M3">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="O3">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="P3">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q3">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="S3">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T3">
-        <v>3.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U3">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="V3">
-        <v>2.08</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W3">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="X3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y3">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z3">
-        <v>1.65</v>
+        <v>40</v>
       </c>
       <c r="AA3">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB3">
-        <v>3.65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC3">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD3">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE3">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AF3">
-        <v>2.16</v>
+        <v>13</v>
       </c>
       <c r="AG3">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH3">
-        <v>1.61</v>
+        <v>38</v>
       </c>
       <c r="AI3">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ3">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="AK3">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL3">
-        <v>2.08</v>
+        <v>11</v>
       </c>
       <c r="AM3">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AN3">
-        <v>2.22</v>
+        <v>18.5</v>
       </c>
       <c r="AO3">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AP3">
-        <v>1.62</v>
+        <v>46</v>
       </c>
       <c r="AQ3">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AR3">
-        <v>2.28</v>
+        <v>30</v>
       </c>
       <c r="AS3">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AT3">
-        <v>2.28</v>
+        <v>28</v>
       </c>
       <c r="AU3">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AV3">
-        <v>1.65</v>
+        <v>44</v>
       </c>
       <c r="AW3">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX3">
-        <v>1.62</v>
+        <v>60</v>
       </c>
       <c r="AY3">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AZ3">
-        <v>1.53</v>
+        <v>24</v>
       </c>
       <c r="BA3">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="BB3">
-        <v>1.62</v>
+        <v>46</v>
       </c>
       <c r="BC3">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BD3">
-        <v>1.62</v>
+        <v>18</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1297,10 +1282,10 @@
         <v>92</v>
       </c>
       <c r="F4">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="G4">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1312,142 +1297,142 @@
         <v>2.84</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="L4">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M4">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="N4">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="P4">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q4">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R4">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S4">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="U4">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V4">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="W4">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="X4">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y4">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z4">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="AA4">
         <v>980</v>
       </c>
       <c r="AB4">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AC4">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD4">
+        <v>5.9</v>
+      </c>
+      <c r="AE4">
+        <v>7.2</v>
+      </c>
+      <c r="AF4">
+        <v>10.5</v>
+      </c>
+      <c r="AG4">
+        <v>17.5</v>
+      </c>
+      <c r="AH4">
         <v>5.4</v>
       </c>
-      <c r="AE4">
-        <v>980</v>
-      </c>
-      <c r="AF4">
-        <v>11</v>
-      </c>
-      <c r="AG4">
-        <v>980</v>
-      </c>
-      <c r="AH4">
-        <v>4.1</v>
-      </c>
       <c r="AI4">
         <v>980</v>
       </c>
       <c r="AJ4">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK4">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL4">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM4">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AN4">
-        <v>3.85</v>
+        <v>19.5</v>
       </c>
       <c r="AO4">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AP4">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AQ4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR4">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="AS4">
         <v>980</v>
       </c>
       <c r="AT4">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="AU4">
         <v>980</v>
       </c>
       <c r="AV4">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AW4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX4">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="AY4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ4">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="BA4">
         <v>980</v>
       </c>
       <c r="BB4">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="BC4">
         <v>980</v>
       </c>
       <c r="BD4">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1494,103 +1479,103 @@
         <v>93</v>
       </c>
       <c r="F5">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="G5">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I5">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="J5">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K5">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L5">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="M5">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="N5">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="O5">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P5">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="Q5">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="R5">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="S5">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="T5">
         <v>8</v>
       </c>
       <c r="U5">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V5">
+        <v>14.5</v>
+      </c>
+      <c r="W5">
+        <v>16</v>
+      </c>
+      <c r="X5">
+        <v>42</v>
+      </c>
+      <c r="Y5">
+        <v>60</v>
+      </c>
+      <c r="Z5">
+        <v>14.5</v>
+      </c>
+      <c r="AA5">
+        <v>980</v>
+      </c>
+      <c r="AB5">
+        <v>5.6</v>
+      </c>
+      <c r="AC5">
+        <v>6.2</v>
+      </c>
+      <c r="AD5">
+        <v>7.8</v>
+      </c>
+      <c r="AE5">
+        <v>8.4</v>
+      </c>
+      <c r="AF5">
+        <v>24</v>
+      </c>
+      <c r="AG5">
+        <v>28</v>
+      </c>
+      <c r="AH5">
+        <v>14</v>
+      </c>
+      <c r="AI5">
+        <v>140</v>
+      </c>
+      <c r="AJ5">
+        <v>7.8</v>
+      </c>
+      <c r="AK5">
         <v>9</v>
       </c>
-      <c r="V5">
-        <v>13</v>
-      </c>
-      <c r="W5">
-        <v>14.5</v>
-      </c>
-      <c r="X5">
-        <v>34</v>
-      </c>
-      <c r="Y5">
-        <v>42</v>
-      </c>
-      <c r="Z5">
-        <v>12.5</v>
-      </c>
-      <c r="AA5">
-        <v>190</v>
-      </c>
-      <c r="AB5">
-        <v>6</v>
-      </c>
-      <c r="AC5">
-        <v>6.6</v>
-      </c>
-      <c r="AD5">
-        <v>7.2</v>
-      </c>
-      <c r="AE5">
-        <v>8</v>
-      </c>
-      <c r="AF5">
-        <v>20</v>
-      </c>
-      <c r="AG5">
-        <v>25</v>
-      </c>
-      <c r="AH5">
-        <v>13</v>
-      </c>
-      <c r="AI5">
-        <v>980</v>
-      </c>
-      <c r="AJ5">
-        <v>8.4</v>
-      </c>
-      <c r="AK5">
-        <v>9.4</v>
-      </c>
       <c r="AL5">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM5">
         <v>11.5</v>
@@ -1599,52 +1584,52 @@
         <v>25</v>
       </c>
       <c r="AO5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP5">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AQ5">
         <v>980</v>
       </c>
       <c r="AR5">
+        <v>15.5</v>
+      </c>
+      <c r="AS5">
         <v>17.5</v>
       </c>
-      <c r="AS5">
-        <v>20</v>
-      </c>
       <c r="AT5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU5">
+        <v>23</v>
+      </c>
+      <c r="AV5">
+        <v>50</v>
+      </c>
+      <c r="AW5">
+        <v>65</v>
+      </c>
+      <c r="AX5">
         <v>26</v>
       </c>
-      <c r="AV5">
-        <v>25</v>
-      </c>
-      <c r="AW5">
-        <v>90</v>
-      </c>
-      <c r="AX5">
-        <v>13</v>
-      </c>
       <c r="AY5">
         <v>980</v>
       </c>
       <c r="AZ5">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="BA5">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="BB5">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="BC5">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="BD5">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1888,160 +1873,160 @@
         <v>95</v>
       </c>
       <c r="F7">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="G7">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H7">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="I7">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="J7">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K7">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L7">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="M7">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="N7">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O7">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="P7">
+        <v>1.74</v>
+      </c>
+      <c r="Q7">
         <v>1.81</v>
       </c>
-      <c r="Q7">
-        <v>1.92</v>
-      </c>
       <c r="R7">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="S7">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="T7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U7">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V7">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
         <v>10.5</v>
       </c>
-      <c r="X7">
-        <v>9.800000000000001</v>
-      </c>
       <c r="Y7">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z7">
-        <v>5.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA7">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AB7">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC7">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD7">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE7">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AF7">
         <v>9.6</v>
       </c>
       <c r="AG7">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH7">
-        <v>5.6</v>
+        <v>16</v>
       </c>
       <c r="AI7">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AJ7">
-        <v>6.2</v>
+        <v>32</v>
       </c>
       <c r="AK7">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL7">
-        <v>5.4</v>
+        <v>16.5</v>
       </c>
       <c r="AM7">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN7">
-        <v>5.5</v>
+        <v>16</v>
       </c>
       <c r="AO7">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AP7">
-        <v>6.2</v>
+        <v>27</v>
       </c>
       <c r="AQ7">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AR7">
-        <v>6.8</v>
+        <v>20</v>
       </c>
       <c r="AS7">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AT7">
-        <v>6.6</v>
+        <v>40</v>
       </c>
       <c r="AU7">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AV7">
-        <v>6.6</v>
+        <v>44</v>
       </c>
       <c r="AW7">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AX7">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="AY7">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AZ7">
-        <v>6.6</v>
+        <v>16.5</v>
       </c>
       <c r="BA7">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BB7">
-        <v>4.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD7">
-        <v>7.4</v>
+        <v>140</v>
       </c>
       <c r="BE7">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="BF7">
         <v>33095363</v>
@@ -2085,157 +2070,157 @@
         <v>96</v>
       </c>
       <c r="F8">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="G8">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H8">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="I8">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J8">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K8">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L8">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O8">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="P8">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q8">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R8">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="S8">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T8">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="U8">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="V8">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="W8">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="X8">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y8">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z8">
-        <v>1.35</v>
+        <v>5.7</v>
       </c>
       <c r="AA8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB8">
-        <v>4.7</v>
+        <v>11.5</v>
       </c>
       <c r="AC8">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AD8">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE8">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AF8">
         <v>9.199999999999999</v>
       </c>
       <c r="AG8">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH8">
-        <v>1.35</v>
+        <v>18.5</v>
       </c>
       <c r="AI8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ8">
-        <v>1.29</v>
+        <v>6</v>
       </c>
       <c r="AK8">
         <v>980</v>
       </c>
       <c r="AL8">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="AM8">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AN8">
-        <v>1.41</v>
+        <v>16</v>
       </c>
       <c r="AO8">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AP8">
-        <v>1.31</v>
+        <v>6</v>
       </c>
       <c r="AQ8">
         <v>980</v>
       </c>
       <c r="AR8">
-        <v>1.35</v>
+        <v>6.4</v>
       </c>
       <c r="AS8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT8">
-        <v>1.35</v>
+        <v>6.2</v>
       </c>
       <c r="AU8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV8">
-        <v>1.17</v>
+        <v>6.2</v>
       </c>
       <c r="AW8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX8">
-        <v>1.1</v>
+        <v>28</v>
       </c>
       <c r="AY8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ8">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="BA8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB8">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="BC8">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BD8">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2282,157 +2267,157 @@
         <v>97</v>
       </c>
       <c r="F9">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G9">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H9">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="M9">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O9">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="P9">
         <v>1.81</v>
       </c>
       <c r="Q9">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R9">
         <v>2.12</v>
       </c>
       <c r="S9">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T9">
-        <v>2.78</v>
+        <v>11</v>
       </c>
       <c r="U9">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="V9">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="W9">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>18.5</v>
       </c>
       <c r="Y9">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z9">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="AA9">
         <v>980</v>
       </c>
       <c r="AB9">
-        <v>3.95</v>
+        <v>9.6</v>
       </c>
       <c r="AC9">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD9">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE9">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF9">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="AG9">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH9">
-        <v>3.5</v>
+        <v>28</v>
       </c>
       <c r="AI9">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ9">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="AK9">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AL9">
-        <v>2.74</v>
+        <v>10.5</v>
       </c>
       <c r="AM9">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AN9">
-        <v>2.96</v>
+        <v>16</v>
       </c>
       <c r="AO9">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AP9">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="AQ9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR9">
-        <v>3.95</v>
+        <v>29</v>
       </c>
       <c r="AS9">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AT9">
-        <v>3.45</v>
+        <v>18</v>
       </c>
       <c r="AU9">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AV9">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="AW9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX9">
-        <v>2.04</v>
+        <v>12.5</v>
       </c>
       <c r="AY9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ9">
-        <v>1.89</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA9">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="BB9">
-        <v>1.79</v>
+        <v>10</v>
       </c>
       <c r="BC9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD9">
-        <v>1.79</v>
+        <v>14</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2479,100 +2464,100 @@
         <v>98</v>
       </c>
       <c r="F10">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="G10">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H10">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I10">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J10">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10">
         <v>3.5</v>
       </c>
       <c r="L10">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M10">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N10">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O10">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="P10">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q10">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="R10">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S10">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="T10">
+        <v>7.4</v>
+      </c>
+      <c r="U10">
+        <v>15.5</v>
+      </c>
+      <c r="V10">
+        <v>12</v>
+      </c>
+      <c r="W10">
+        <v>980</v>
+      </c>
+      <c r="X10">
+        <v>30</v>
+      </c>
+      <c r="Y10">
+        <v>46</v>
+      </c>
+      <c r="Z10">
+        <v>6.4</v>
+      </c>
+      <c r="AA10">
+        <v>980</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>7</v>
+      </c>
+      <c r="AD10">
         <v>7.2</v>
       </c>
-      <c r="U10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="V10">
-        <v>6.8</v>
-      </c>
-      <c r="W10">
-        <v>980</v>
-      </c>
-      <c r="X10">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y10">
-        <v>40</v>
-      </c>
-      <c r="Z10">
-        <v>4.1</v>
-      </c>
-      <c r="AA10">
-        <v>980</v>
-      </c>
-      <c r="AB10">
-        <v>5.7</v>
-      </c>
-      <c r="AC10">
-        <v>6.8</v>
-      </c>
-      <c r="AD10">
-        <v>7.4</v>
-      </c>
       <c r="AE10">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AF10">
-        <v>20</v>
+        <v>8.6</v>
       </c>
       <c r="AG10">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AH10">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="AI10">
         <v>980</v>
       </c>
       <c r="AJ10">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK10">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AL10">
         <v>10</v>
@@ -2581,55 +2566,55 @@
         <v>11.5</v>
       </c>
       <c r="AN10">
-        <v>8.6</v>
+        <v>19</v>
       </c>
       <c r="AO10">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP10">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="AQ10">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AR10">
         <v>18</v>
       </c>
       <c r="AS10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT10">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AU10">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AV10">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AW10">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX10">
-        <v>2.74</v>
+        <v>6.6</v>
       </c>
       <c r="AY10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ10">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="BA10">
         <v>980</v>
       </c>
       <c r="BB10">
-        <v>2.72</v>
+        <v>6.8</v>
       </c>
       <c r="BC10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD10">
-        <v>2.76</v>
+        <v>5</v>
       </c>
       <c r="BE10">
         <v>1000</v>
